--- a/data/trans_orig/P1428-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>68022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54171</v>
+        <v>55497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85246</v>
+        <v>85887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1164479761551334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09273597709525543</v>
+        <v>0.09500638750508049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1459336274088066</v>
+        <v>0.1470313953391029</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>219</v>
@@ -765,19 +765,19 @@
         <v>224746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>200368</v>
+        <v>199119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>253536</v>
+        <v>249986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2436709268054775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2172405342520476</v>
+        <v>0.2158856968775261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2748855074579832</v>
+        <v>0.2710368272779893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>292</v>
@@ -786,19 +786,19 @@
         <v>292768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>263981</v>
+        <v>263169</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>323970</v>
+        <v>324821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1943397290852706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1752308336488779</v>
+        <v>0.1746920808906306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2150515440566248</v>
+        <v>0.2156168706015393</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>516119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>498895</v>
+        <v>498254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>529970</v>
+        <v>528644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8835520238448666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8540663725911936</v>
+        <v>0.8529686046608973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9072640229047448</v>
+        <v>0.9049936124949204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>666</v>
@@ -836,19 +836,19 @@
         <v>697587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668797</v>
+        <v>672347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>721965</v>
+        <v>723214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7563290731945226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7251144925420171</v>
+        <v>0.7289631727220106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7827594657479525</v>
+        <v>0.7841143031224738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1167</v>
@@ -857,19 +857,19 @@
         <v>1213706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1182504</v>
+        <v>1181653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1242493</v>
+        <v>1243305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8056602709147295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7849484559433751</v>
+        <v>0.7843831293984607</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8247691663511221</v>
+        <v>0.8253079191093694</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61515</v>
+        <v>60614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93998</v>
+        <v>93896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07016495198976475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05706948445752127</v>
+        <v>0.05623401495155954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08720561212567646</v>
+        <v>0.08711089668286465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -982,19 +982,19 @@
         <v>184511</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162539</v>
+        <v>160629</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>212325</v>
+        <v>210059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1744725798849167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1536955987624529</v>
+        <v>0.151889845170812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2007728044276602</v>
+        <v>0.1986305118122101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -1003,19 +1003,19 @@
         <v>260142</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233052</v>
+        <v>232172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>293475</v>
+        <v>290518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1218216091307779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1091358458734289</v>
+        <v>0.108723802795215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.137431085649009</v>
+        <v>0.136046405620547</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1002264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>983896</v>
+        <v>983998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1016379</v>
+        <v>1017280</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9298350480102352</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9127943878743235</v>
+        <v>0.9128891033171354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9429305155424786</v>
+        <v>0.9437659850484404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>851</v>
@@ -1053,19 +1053,19 @@
         <v>873027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>845213</v>
+        <v>847479</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894999</v>
+        <v>896909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8255274201150833</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7992271955723396</v>
+        <v>0.8013694881877897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8463044012375471</v>
+        <v>0.8481101548291879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1828</v>
@@ -1074,19 +1074,19 @@
         <v>1875290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1841957</v>
+        <v>1844914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1902380</v>
+        <v>1903260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8781783908692221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8625689143509905</v>
+        <v>0.8639535943794528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8908641541265709</v>
+        <v>0.8912761972047848</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>57152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44515</v>
+        <v>43201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73003</v>
+        <v>74181</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05095612023559223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03968890032007495</v>
+        <v>0.03851760367043851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0650884909916228</v>
+        <v>0.06613899951992125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1199,19 +1199,19 @@
         <v>137515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117186</v>
+        <v>117722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158295</v>
+        <v>160161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1383532570055794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1179005435614623</v>
+        <v>0.1184398636061732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1592598171976631</v>
+        <v>0.1611377116006034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -1220,19 +1220,19 @@
         <v>194667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170358</v>
+        <v>169361</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223084</v>
+        <v>223218</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09201784767022861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08052731538018122</v>
+        <v>0.08005583202960803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1054505929847701</v>
+        <v>0.1055139338991116</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1064442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1048591</v>
+        <v>1047413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1077079</v>
+        <v>1078393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9490438797644077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9349115090083773</v>
+        <v>0.9338610004800788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9603110996799251</v>
+        <v>0.9614823963295616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>849</v>
@@ -1270,19 +1270,19 @@
         <v>856425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>835645</v>
+        <v>833779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>876754</v>
+        <v>876218</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8616467429944206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.840740182802337</v>
+        <v>0.8388622883993965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8820994564385377</v>
+        <v>0.8815601363938266</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1894</v>
@@ -1291,19 +1291,19 @@
         <v>1920867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1892450</v>
+        <v>1892316</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1945176</v>
+        <v>1946173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9079821523297714</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.89454940701523</v>
+        <v>0.8944860661008885</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9194726846198188</v>
+        <v>0.919944167970392</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>28483</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18409</v>
+        <v>19191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40474</v>
+        <v>39130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06369291039204336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04116579512796365</v>
+        <v>0.04291280697426356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0905056166056365</v>
+        <v>0.0875004955987576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>34530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23881</v>
+        <v>24945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46353</v>
+        <v>48779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1012133207482105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0699984450993798</v>
+        <v>0.07311940983518515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1358700136418279</v>
+        <v>0.1429812062539242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1437,19 +1437,19 @@
         <v>63013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49012</v>
+        <v>48485</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80129</v>
+        <v>79936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07992969242860899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06217017958175426</v>
+        <v>0.06150131373330526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1016406776610191</v>
+        <v>0.1013951807898174</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>418717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>406726</v>
+        <v>408070</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428791</v>
+        <v>428009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9363070896079566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9094943833943634</v>
+        <v>0.9124995044012424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9588342048720364</v>
+        <v>0.9570871930257363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>306</v>
@@ -1487,19 +1487,19 @@
         <v>306628</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294805</v>
+        <v>292379</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317277</v>
+        <v>316213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8987866792517896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8641299863581718</v>
+        <v>0.8570187937460757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9300015549006202</v>
+        <v>0.9268805901648148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>714</v>
@@ -1508,19 +1508,19 @@
         <v>725345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708229</v>
+        <v>708422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739346</v>
+        <v>739873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.920070307571391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8983593223389809</v>
+        <v>0.8986048192101826</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9378298204182457</v>
+        <v>0.9384986862666947</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>229288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>203419</v>
+        <v>202812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>259788</v>
+        <v>259877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07096877593412572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06296195399549763</v>
+        <v>0.06277405134713547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08040909972207741</v>
+        <v>0.08043670483665359</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>562</v>
@@ -1633,19 +1633,19 @@
         <v>581302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>540140</v>
+        <v>538176</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>630489</v>
+        <v>623708</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1753566027023542</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1629395637845831</v>
+        <v>0.1623473129738493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1901945682109458</v>
+        <v>0.1881488690187138</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>799</v>
@@ -1654,19 +1654,19 @@
         <v>810590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>759615</v>
+        <v>751590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>863636</v>
+        <v>862685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1238335885769083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1160462343637128</v>
+        <v>0.1148202570810447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1319374858018288</v>
+        <v>0.1317921533558988</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3001541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2971041</v>
+        <v>2970952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3027410</v>
+        <v>3028017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9290312240658742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9195909002779228</v>
+        <v>0.9195632951633455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9370380460045025</v>
+        <v>0.9372259486528645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2672</v>
@@ -1704,19 +1704,19 @@
         <v>2733667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2684480</v>
+        <v>2691261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2774829</v>
+        <v>2776793</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8246433972976458</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8098054317890542</v>
+        <v>0.8118511309812863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8370604362154168</v>
+        <v>0.8376526870261508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5603</v>
@@ -1725,19 +1725,19 @@
         <v>5735208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5682162</v>
+        <v>5683113</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5786183</v>
+        <v>5794208</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8761664114230917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.868062514198171</v>
+        <v>0.8682078466441011</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.883953765636287</v>
+        <v>0.8851797429189553</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>42976</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31843</v>
+        <v>31046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58862</v>
+        <v>58897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04116751880907701</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03050248491209111</v>
+        <v>0.02973921663869923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05638433110279335</v>
+        <v>0.05641825571123003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -2090,19 +2090,19 @@
         <v>133908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111678</v>
+        <v>113406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157589</v>
+        <v>157277</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1197049505598841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09983238351286602</v>
+        <v>0.101377410370408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1408741268237304</v>
+        <v>0.1405954003320668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -2111,19 +2111,19 @@
         <v>176885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>151341</v>
+        <v>151730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203000</v>
+        <v>205105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08179298249440715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06998140468220611</v>
+        <v>0.0701614685408871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09386883717247715</v>
+        <v>0.09484219590200213</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1000959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>985073</v>
+        <v>985038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1012092</v>
+        <v>1012889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.958832481190923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9436156688972066</v>
+        <v>0.94358174428877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9694975150879088</v>
+        <v>0.9702607833613009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>905</v>
@@ -2161,19 +2161,19 @@
         <v>984745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>961064</v>
+        <v>961376</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1006975</v>
+        <v>1005247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8802950494401159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8591258731762696</v>
+        <v>0.8594045996679333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9001676164871341</v>
+        <v>0.8986225896295921</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1844</v>
@@ -2182,19 +2182,19 @@
         <v>1985703</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1959588</v>
+        <v>1957483</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2011247</v>
+        <v>2010858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9182070175055929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9061311628275226</v>
+        <v>0.9051578040979976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9300185953177937</v>
+        <v>0.9298385314591127</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>53753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40355</v>
+        <v>39819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70145</v>
+        <v>70864</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0550147498907115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04130204958303584</v>
+        <v>0.04075336591098088</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07179112470065399</v>
+        <v>0.07252729705294091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -2307,19 +2307,19 @@
         <v>147492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125633</v>
+        <v>128221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173670</v>
+        <v>171875</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.135025460544909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1150144332328576</v>
+        <v>0.1173836123094869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1589907071348288</v>
+        <v>0.1573479144874626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -2328,19 +2328,19 @@
         <v>201245</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175446</v>
+        <v>175919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230945</v>
+        <v>230783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09724818235351324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08478097670550389</v>
+        <v>0.0850095155935577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1116000017448871</v>
+        <v>0.1115216178414008</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>923320</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>906928</v>
+        <v>906209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>936718</v>
+        <v>937254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9449852501092885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.928208875299346</v>
+        <v>0.927472702947059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.958697950416964</v>
+        <v>0.9592466340890184</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -2378,19 +2378,19 @@
         <v>944835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918657</v>
+        <v>920452</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966694</v>
+        <v>964106</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.864974539455091</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8410092928651712</v>
+        <v>0.8426520855125373</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8849855667671425</v>
+        <v>0.8826163876905131</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1755</v>
@@ -2399,19 +2399,19 @@
         <v>1868155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1838455</v>
+        <v>1838617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1893954</v>
+        <v>1893481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9027518176464867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8883999982551131</v>
+        <v>0.8884783821585992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9152190232944962</v>
+        <v>0.9149904844064423</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>50270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37327</v>
+        <v>37058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64443</v>
+        <v>64973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05679498287175697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04217225429865477</v>
+        <v>0.04186850894697621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07280705560606812</v>
+        <v>0.07340670364818537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -2524,19 +2524,19 @@
         <v>100252</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83546</v>
+        <v>81188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121133</v>
+        <v>119843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1144696315626357</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09539432706797207</v>
+        <v>0.09270151143459229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1383122550697046</v>
+        <v>0.136838420136457</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -2545,19 +2545,19 @@
         <v>150522</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126694</v>
+        <v>128136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176038</v>
+        <v>173582</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08547969050572544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07194806420390944</v>
+        <v>0.07276665313607925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09996985635560127</v>
+        <v>0.09857511997554776</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>834845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>820672</v>
+        <v>820142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>847788</v>
+        <v>848057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.943205017128243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9271929443939322</v>
+        <v>0.9265932963518146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9578277457013452</v>
+        <v>0.9581314910530239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -2595,19 +2595,19 @@
         <v>775544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>754663</v>
+        <v>755953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>792250</v>
+        <v>794608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8855303684373643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8616877449302954</v>
+        <v>0.8631615798635429</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.904605672932028</v>
+        <v>0.9072984885654075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1513</v>
@@ -2616,19 +2616,19 @@
         <v>1610389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1584873</v>
+        <v>1587329</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1634217</v>
+        <v>1632775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9145203094942745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9000301436443985</v>
+        <v>0.9014248800244522</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9280519357960905</v>
+        <v>0.9272333468639206</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>26268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16847</v>
+        <v>16515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39777</v>
+        <v>39104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05222015645139935</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03349159380460921</v>
+        <v>0.03283220092866731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07907622196111522</v>
+        <v>0.0777381924241608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -2741,19 +2741,19 @@
         <v>54745</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41898</v>
+        <v>40467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71481</v>
+        <v>70185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1209211981391244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09254381874790499</v>
+        <v>0.08938360461201389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1578868347458976</v>
+        <v>0.1550234584405397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -2762,19 +2762,19 @@
         <v>81013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63476</v>
+        <v>62798</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100033</v>
+        <v>99704</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08476332974955768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06641382969458762</v>
+        <v>0.06570448341662061</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1046630352970041</v>
+        <v>0.1043187756686775</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>476755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463246</v>
+        <v>463919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>486176</v>
+        <v>486508</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9477798435486007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9209237780388848</v>
+        <v>0.9222618075758392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9665084061953908</v>
+        <v>0.9671677990713328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -2812,19 +2812,19 @@
         <v>397991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381255</v>
+        <v>382551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410838</v>
+        <v>412269</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8790788018608756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.842113165254102</v>
+        <v>0.8449765415594603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9074561812520946</v>
+        <v>0.9106163953879862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>805</v>
@@ -2833,19 +2833,19 @@
         <v>874745</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>855725</v>
+        <v>856054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892282</v>
+        <v>892960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9152366702504423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8953369647029958</v>
+        <v>0.8956812243313225</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9335861703054124</v>
+        <v>0.9342955165833794</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>173268</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147001</v>
+        <v>148387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202408</v>
+        <v>200985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05082436303056242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04311956896501701</v>
+        <v>0.04352626843108742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05937206525794857</v>
+        <v>0.05895480641586924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>401</v>
@@ -2958,19 +2958,19 @@
         <v>436398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>399565</v>
+        <v>397465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>477734</v>
+        <v>483123</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.123293179272405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1128869259674076</v>
+        <v>0.1122938494487845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1349717779971922</v>
+        <v>0.1364943188017123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>558</v>
@@ -2979,19 +2979,19 @@
         <v>609665</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>562257</v>
+        <v>563753</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>664030</v>
+        <v>659549</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08773857610349754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0809159452891226</v>
+        <v>0.08113115153328809</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09556235946550735</v>
+        <v>0.09491742625524434</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3235877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3206737</v>
+        <v>3208160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3262144</v>
+        <v>3260758</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9491756369694376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9406279347420512</v>
+        <v>0.9410451935841307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9568804310349829</v>
+        <v>0.9564737315689125</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2881</v>
@@ -3029,19 +3029,19 @@
         <v>3103113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3061777</v>
+        <v>3056388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3139946</v>
+        <v>3142046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.876706820727595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8650282220028078</v>
+        <v>0.863505681198288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8871130740325925</v>
+        <v>0.8877061505512155</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5917</v>
@@ -3050,19 +3050,19 @@
         <v>6338992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6284627</v>
+        <v>6289108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6386400</v>
+        <v>6384904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9122614238965024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9044376405344927</v>
+        <v>0.9050825737447558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9190840547108775</v>
+        <v>0.9188688484667121</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>45771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32983</v>
+        <v>33070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60105</v>
+        <v>59146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04057691689445526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02924017325124262</v>
+        <v>0.02931753677282918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05328466956537416</v>
+        <v>0.05243494577660202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -3415,19 +3415,19 @@
         <v>140485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117823</v>
+        <v>118230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165235</v>
+        <v>165095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1115351191355701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09354260143532053</v>
+        <v>0.09386574505184919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1311843176231755</v>
+        <v>0.1310730493988685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -3436,19 +3436,19 @@
         <v>186256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160437</v>
+        <v>161964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215255</v>
+        <v>217628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07801105162296115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06719721004366071</v>
+        <v>0.06783663977782885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09015713655280841</v>
+        <v>0.09115094496150247</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1082226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1067892</v>
+        <v>1068851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1095014</v>
+        <v>1094927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9594230831055447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9467153304346259</v>
+        <v>0.9475650542233987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9707598267487575</v>
+        <v>0.9706824632271712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1065</v>
@@ -3486,19 +3486,19 @@
         <v>1119076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1094326</v>
+        <v>1094466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1141738</v>
+        <v>1141331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8884648808644299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8688156823768245</v>
+        <v>0.8689269506011316</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9064573985646794</v>
+        <v>0.9061342549481508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2086</v>
@@ -3507,19 +3507,19 @@
         <v>2201302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2172303</v>
+        <v>2169930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2227121</v>
+        <v>2225594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9219889483770388</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9098428634471917</v>
+        <v>0.9088490550384981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9328027899563393</v>
+        <v>0.9321633602221713</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>31513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22096</v>
+        <v>22563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44510</v>
+        <v>43161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03467446932825993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02431282068698814</v>
+        <v>0.02482635606274836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04897555804660237</v>
+        <v>0.04749081629107824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -3632,19 +3632,19 @@
         <v>99017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80303</v>
+        <v>79324</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118667</v>
+        <v>120324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09838038459224037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0797859070843239</v>
+        <v>0.07881357814488003</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1179036177565488</v>
+        <v>0.1195501441096317</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -3653,19 +3653,19 @@
         <v>130530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110060</v>
+        <v>108243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155263</v>
+        <v>152147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06815143243310307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05746342736153807</v>
+        <v>0.05651468616017617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08106457960903088</v>
+        <v>0.079437443416948</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>877312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>864315</v>
+        <v>865664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>886729</v>
+        <v>886262</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9653255306717401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9510244419533977</v>
+        <v>0.9525091837089217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9756871793130119</v>
+        <v>0.9751736439372515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>862</v>
@@ -3703,19 +3703,19 @@
         <v>907458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>887808</v>
+        <v>886151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>926172</v>
+        <v>927151</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9016196154077596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8820963822434514</v>
+        <v>0.8804498558903689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9202140929156764</v>
+        <v>0.9211864218551205</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1710</v>
@@ -3724,19 +3724,19 @@
         <v>1784770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1760037</v>
+        <v>1763153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1805240</v>
+        <v>1807057</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9318485675668969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9189354203909691</v>
+        <v>0.920562556583052</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9425365726384619</v>
+        <v>0.9434853138398238</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>25235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16157</v>
+        <v>16897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36796</v>
+        <v>36290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03063385767519783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01961314941836508</v>
+        <v>0.02051168050703741</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04466879567742121</v>
+        <v>0.04405369185754311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -3849,19 +3849,19 @@
         <v>63346</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48034</v>
+        <v>48136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80737</v>
+        <v>80976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08215439973690948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06229667187153586</v>
+        <v>0.0624278640014292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1047086857270217</v>
+        <v>0.1050192025574872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3870,19 +3870,19 @@
         <v>88581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70078</v>
+        <v>70399</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109732</v>
+        <v>108993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05554288319445022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04394136354697211</v>
+        <v>0.04414258397638172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06880549383948156</v>
+        <v>0.06834205162898911</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>798524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>786963</v>
+        <v>787469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>807602</v>
+        <v>806862</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9693661423248021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9553312043225787</v>
+        <v>0.9559463081424567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9803868505816348</v>
+        <v>0.9794883194929626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>672</v>
@@ -3920,19 +3920,19 @@
         <v>707713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690322</v>
+        <v>690083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>723025</v>
+        <v>722923</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9178456002630905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.895291314272978</v>
+        <v>0.8949807974425128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9377033281284641</v>
+        <v>0.9375721359985708</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1434</v>
@@ -3941,19 +3941,19 @@
         <v>1506237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1485086</v>
+        <v>1485825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1524740</v>
+        <v>1524419</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9444571168055498</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9311945061605185</v>
+        <v>0.9316579483710107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560586364530279</v>
+        <v>0.9558574160236182</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>19426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11807</v>
+        <v>11454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31952</v>
+        <v>29808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03833859711195531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.023301458655297</v>
+        <v>0.0226041613683299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06305820128018186</v>
+        <v>0.05882697622841913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4066,19 +4066,19 @@
         <v>26762</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17068</v>
+        <v>16875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39811</v>
+        <v>39146</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05464927799490889</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03485489634941247</v>
+        <v>0.03445972974076651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08129670795047389</v>
+        <v>0.07993811828915445</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4087,19 +4087,19 @@
         <v>46188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33108</v>
+        <v>33869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63676</v>
+        <v>63044</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04635476822556316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03322784459867033</v>
+        <v>0.03399099057094811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06390624361199387</v>
+        <v>0.06327173129765389</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>487275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474749</v>
+        <v>476893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494894</v>
+        <v>495247</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9616614028880447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9369417987198182</v>
+        <v>0.9411730237715814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.976698541344703</v>
+        <v>0.9773958386316701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -4137,19 +4137,19 @@
         <v>462936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>449887</v>
+        <v>450552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>472630</v>
+        <v>472823</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9453507220050911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9187032920495261</v>
+        <v>0.9200618817108452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9651451036505875</v>
+        <v>0.9655402702592335</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>887</v>
@@ -4158,19 +4158,19 @@
         <v>950210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>932722</v>
+        <v>933354</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>963290</v>
+        <v>962529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9536452317744368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9360937563880061</v>
+        <v>0.9367282687023462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667721554013298</v>
+        <v>0.9660090094290519</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>121945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100521</v>
+        <v>101679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143165</v>
+        <v>144611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03621460437919864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.029852350569343</v>
+        <v>0.03019607368627578</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0425165249902477</v>
+        <v>0.04294578751061912</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -4283,19 +4283,19 @@
         <v>329610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>293408</v>
+        <v>290334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>366864</v>
+        <v>365454</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09345891082174916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08319411338961848</v>
+        <v>0.08232245634050947</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.104021946709215</v>
+        <v>0.1036222355578145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>410</v>
@@ -4304,19 +4304,19 @@
         <v>451555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411934</v>
+        <v>415000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>498282</v>
+        <v>500903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06549899625047746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05975188817772326</v>
+        <v>0.06019658139540041</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07227691688463088</v>
+        <v>0.07265700251288548</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3245337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3224117</v>
+        <v>3222671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3266761</v>
+        <v>3265603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9637853956208013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9574834750097523</v>
+        <v>0.9570542124893808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.970147649430657</v>
+        <v>0.9698039263137243</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3032</v>
@@ -4354,19 +4354,19 @@
         <v>3197182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3159928</v>
+        <v>3161338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3233384</v>
+        <v>3236458</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9065410891782508</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8959780532907851</v>
+        <v>0.8963777644421855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9168058866103815</v>
+        <v>0.9176775436594906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6117</v>
@@ -4375,19 +4375,19 @@
         <v>6442520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6395793</v>
+        <v>6393172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6482141</v>
+        <v>6479075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9345010037495225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9277230831153692</v>
+        <v>0.9273429974871146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9402481118222767</v>
+        <v>0.9398034186045996</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>36018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24820</v>
+        <v>26366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47541</v>
+        <v>47442</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07287033263821957</v>
+        <v>0.07287033263821958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05021572324461364</v>
+        <v>0.0533433037516973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09618374287995803</v>
+        <v>0.09598277475484006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>212</v>
@@ -4740,19 +4740,19 @@
         <v>122627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106965</v>
+        <v>107290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138910</v>
+        <v>140215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1974165039101568</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1722030292207742</v>
+        <v>0.172725527442169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.223630939036733</v>
+        <v>0.2257314544258104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -4761,19 +4761,19 @@
         <v>158645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138726</v>
+        <v>138754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178101</v>
+        <v>179842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1422269571075752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1243695118889702</v>
+        <v>0.1243949091225357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1596694137377881</v>
+        <v>0.1612301580385795</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>458259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446736</v>
+        <v>446835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>469457</v>
+        <v>467911</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9271296673617804</v>
+        <v>0.9271296673617805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9038162571200425</v>
+        <v>0.9040172252451589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9497842767553865</v>
+        <v>0.9466566962483021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>645</v>
@@ -4811,19 +4811,19 @@
         <v>498531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>482248</v>
+        <v>480943</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>514193</v>
+        <v>513868</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8025834960898433</v>
+        <v>0.8025834960898434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.776369060963267</v>
+        <v>0.7742685455741908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8277969707792256</v>
+        <v>0.8272744725578313</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1053</v>
@@ -4832,19 +4832,19 @@
         <v>956790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>937334</v>
+        <v>935593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>976709</v>
+        <v>976681</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8577730428924248</v>
+        <v>0.8577730428924246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8403305862622121</v>
+        <v>0.838769841961421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8756304881110298</v>
+        <v>0.8756050908774645</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>49305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38062</v>
+        <v>38274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62594</v>
+        <v>62072</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05145223412269155</v>
+        <v>0.05145223412269156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03971963814995722</v>
+        <v>0.0399409972088839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06531938435929983</v>
+        <v>0.06477484559359037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>300</v>
@@ -4957,19 +4957,19 @@
         <v>165967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147842</v>
+        <v>149573</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185426</v>
+        <v>186177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1494694075616491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1331457344223087</v>
+        <v>0.1347046475207649</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1669936722039371</v>
+        <v>0.1676704722064651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>367</v>
@@ -4978,19 +4978,19 @@
         <v>215272</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194928</v>
+        <v>193115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237239</v>
+        <v>240003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1040643928506002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09422986554474327</v>
+        <v>0.09335309429484041</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1146830138446996</v>
+        <v>0.1160195405491498</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>908965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895676</v>
+        <v>896198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920208</v>
+        <v>919996</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9485477658773085</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9346806156407004</v>
+        <v>0.9352251544064092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9602803618500431</v>
+        <v>0.9600590027911159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1300</v>
@@ -5028,19 +5028,19 @@
         <v>944410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924951</v>
+        <v>924200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962535</v>
+        <v>960804</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8505305924383507</v>
+        <v>0.8505305924383508</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8330063277960633</v>
+        <v>0.8323295277935351</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8668542655776915</v>
+        <v>0.8652953524792354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2141</v>
@@ -5049,19 +5049,19 @@
         <v>1853375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1831408</v>
+        <v>1828644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1873719</v>
+        <v>1875532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8959356071493999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8853169861553004</v>
+        <v>0.8839804594508502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9057701344552569</v>
+        <v>0.9066469057051594</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>43358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32578</v>
+        <v>32423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56349</v>
+        <v>56454</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0414318101568789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03113067921497325</v>
+        <v>0.03098254681086049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05384654519705944</v>
+        <v>0.05394674468391243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -5174,19 +5174,19 @@
         <v>133696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116329</v>
+        <v>118532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153243</v>
+        <v>150190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.128008906502767</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1113809428185163</v>
+        <v>0.1134898604173229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1467248370011873</v>
+        <v>0.1438015543787064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -5195,19 +5195,19 @@
         <v>177053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156784</v>
+        <v>157212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199614</v>
+        <v>199060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08467785510260929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07498368357539584</v>
+        <v>0.07518837124699113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09546798452260206</v>
+        <v>0.09520268434328551</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1003121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>990130</v>
+        <v>990025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1013901</v>
+        <v>1014056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9585681898431212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9461534548029406</v>
+        <v>0.9460532553160875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9688693207850267</v>
+        <v>0.9690174531891396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1272</v>
@@ -5245,19 +5245,19 @@
         <v>910730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>891183</v>
+        <v>894236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>928097</v>
+        <v>925894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8719910934972329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8532751629988127</v>
+        <v>0.8561984456212934</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8886190571814832</v>
+        <v>0.8865101395826772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2240</v>
@@ -5266,19 +5266,19 @@
         <v>1913852</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1891291</v>
+        <v>1891845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1934121</v>
+        <v>1933693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9153221448973906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.904532015477398</v>
+        <v>0.9047973156567144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9250163164246035</v>
+        <v>0.9248116287530089</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>55692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41915</v>
+        <v>43002</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70426</v>
+        <v>69637</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.057127758519966</v>
+        <v>0.05712775851996601</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04299498631886891</v>
+        <v>0.04411007126815777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07224109997108906</v>
+        <v>0.07143169455938428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -5391,19 +5391,19 @@
         <v>103619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89173</v>
+        <v>89905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119977</v>
+        <v>118936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1145951489429513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09861928553374685</v>
+        <v>0.09942825021059185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.132686196067084</v>
+        <v>0.1315348882095016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -5412,19 +5412,19 @@
         <v>159311</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140334</v>
+        <v>137584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183796</v>
+        <v>181605</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08478106213596141</v>
+        <v>0.0847810621359614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07468181476178637</v>
+        <v>0.07321851451899521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09781129491376024</v>
+        <v>0.09664491088531967</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>919181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>904447</v>
+        <v>905236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932958</v>
+        <v>931871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.942872241480034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9277589000289109</v>
+        <v>0.9285683054406157</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9570050136811311</v>
+        <v>0.9558899287318422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1126</v>
@@ -5462,19 +5462,19 @@
         <v>800600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>784242</v>
+        <v>785283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>815046</v>
+        <v>814314</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8854048510570488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8673138039329159</v>
+        <v>0.8684651117904988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9013807144662527</v>
+        <v>0.9005717497894082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2004</v>
@@ -5483,19 +5483,19 @@
         <v>1719781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1695296</v>
+        <v>1697487</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1738758</v>
+        <v>1741508</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9152189378640386</v>
+        <v>0.9152189378640385</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9021887050862403</v>
+        <v>0.9033550891146803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9253181852382137</v>
+        <v>0.926781485481005</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>184373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161187</v>
+        <v>161062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210610</v>
+        <v>211064</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05307382144925515</v>
+        <v>0.05307382144925516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04639946273453565</v>
+        <v>0.04636333287407121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06062635056746826</v>
+        <v>0.06075706127594931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>939</v>
@@ -5608,19 +5608,19 @@
         <v>525909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>495915</v>
+        <v>494812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>563476</v>
+        <v>562860</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.142903103996042</v>
+        <v>0.1429031039960421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.134752863707787</v>
+        <v>0.1344532446874226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1531108586083273</v>
+        <v>0.152943475472775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1178</v>
@@ -5629,19 +5629,19 @@
         <v>710282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>670991</v>
+        <v>671202</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>755877</v>
+        <v>752201</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09928352373745618</v>
+        <v>0.09928352373745621</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09379141695572384</v>
+        <v>0.09382080887332074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1056568031180626</v>
+        <v>0.1051429731015231</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3289527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3263290</v>
+        <v>3262836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3312713</v>
+        <v>3312838</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9469261785507449</v>
+        <v>0.9469261785507448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.939373649432532</v>
+        <v>0.9392429387240506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9536005372654645</v>
+        <v>0.9536366671259289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4343</v>
@@ -5679,19 +5679,19 @@
         <v>3154271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3116704</v>
+        <v>3117320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3184265</v>
+        <v>3185368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8570968960039579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8468891413916726</v>
+        <v>0.8470565245272249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8652471362922129</v>
+        <v>0.8655467553125772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7438</v>
@@ -5700,19 +5700,19 @@
         <v>6443798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6398203</v>
+        <v>6401879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6483089</v>
+        <v>6482878</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9007164762625439</v>
+        <v>0.900716476262544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8943431968819374</v>
+        <v>0.8948570268984769</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9062085830442762</v>
+        <v>0.9061791911266793</v>
       </c>
     </row>
     <row r="18">
